--- a/Data/Model 1.1 nul long.xlsx
+++ b/Data/Model 1.1 nul long.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Model 1.1 nul long" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -9931,6 +9931,7 @@
         <c:axId val="767400288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -19420,6 +19421,7 @@
         <c:axId val="890735648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -38398,6 +38400,7 @@
         <c:axId val="880862656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -41147,8 +41150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K11" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
